--- a/files/import_from_site/new/15-09-2023.xlsx
+++ b/files/import_from_site/new/15-09-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -530,7 +530,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-21.5%</t>
+          <t>-33.1%</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -582,7 +582,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-29.9%</t>
+          <t>-47.8%</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>-8.5%</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2499</v>
+        <v>2399</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-10.0%</t>
+          <t>-13.6%</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5249</v>
+        <v>4699</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -736,29 +736,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-9.2%</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>136.54</v>
       </c>
       <c r="I6" t="n">
-        <v>5052</v>
+        <v>5175</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>48612</v>
       </c>
       <c r="N6" t="n">
-        <v>4876625</v>
+        <v>-4876625</v>
       </c>
     </row>
     <row r="7">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1399</v>
+        <v>1349</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-8.3%</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1499</v>
+        <v>1449</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -836,7 +836,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-5.3%</t>
+          <t>-8.5%</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -871,16 +871,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GRAND-X</t>
+          <t>FRIME</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HDE21</t>
+          <t>Переходник Frime для установки 2.5" SSD/HDD в отсек привода 9.5мм Black (FHDC950P)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -888,14 +888,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-6.3%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.16</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
@@ -904,35 +904,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>53</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>U0100199</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>346814</v>
       </c>
       <c r="N9" t="n">
-        <v>1287887</v>
+        <v>6227365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Жесткие диски - карманы</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEGEND 710 2TB M.2 PCIe 3.0 (ALEG-710-2TCS)</t>
+          <t>MF-95-02</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3099</v>
+        <v>169</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -940,14 +938,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>78.8</v>
+        <v>4.43</v>
       </c>
       <c r="I10" t="n">
-        <v>3011</v>
+        <v>168</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
@@ -956,33 +954,35 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1390703</v>
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0307002</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>9712749</v>
+        <v>1763548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Жесткие диски SSD</t>
+          <t>Жесткие диски - карманы</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CRUCIAL</t>
+          <t>GRAND-X</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BX500 500GB 2.5 SATA III (CT500BX500SSD1)</t>
+          <t>HDE21</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>949</v>
+        <v>169</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -990,14 +990,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-11.7%</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>25.02</v>
+        <v>5.16</v>
       </c>
       <c r="I11" t="n">
-        <v>949</v>
+        <v>191</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
@@ -1006,15 +1006,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>U0666404</t>
+          <t>U0100199</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>9077313</v>
+        <v>1287887</v>
       </c>
     </row>
     <row r="12">
@@ -1025,52 +1025,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A400 960GB 2.5 SATA III (SA400S37/960G)</t>
+          <t>LEGEND 710 2TB M.2 PCIe 3.0 (ALEG-710-2TCS)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1539</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Строгач</t>
-        </is>
-      </c>
+        <v>2999</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>39</v>
+        <v>78.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1482</v>
+        <v>3011</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>16</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>SA400S37/960G</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1390703</v>
       </c>
       <c r="N12" t="n">
-        <v>2662168</v>
+        <v>9712749</v>
       </c>
     </row>
     <row r="13">
@@ -1081,50 +1075,48 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>CRUCIAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>KC3000 1TB M.2 PCIe 4.0 (SKC3000S/1024G)</t>
+          <t>BX500 500GB 2.5 SATA III (CT500BX500SSD1)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2739</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Строгач</t>
-        </is>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>-1.0%</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>74</v>
+        <v>25.02</v>
       </c>
       <c r="I13" t="n">
-        <v>2827</v>
+        <v>949</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>378364</v>
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>U0666404</t>
+        </is>
       </c>
       <c r="N13" t="n">
-        <v>7948150</v>
+        <v>9077313</v>
       </c>
     </row>
     <row r="14">
@@ -1140,11 +1132,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>XS2000 1TB USB 3.2 Gen 2x2 Type-C (SXS2000/1000G)</t>
+          <t>A400 960GB 2.5 SATA III (SA400S37/960G)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3129</v>
+        <v>1539</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1152,18 +1144,18 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>78.5</v>
+        <v>39</v>
       </c>
       <c r="I14" t="n">
-        <v>2983</v>
+        <v>1482</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
@@ -1174,11 +1166,13 @@
       <c r="L14" t="n">
         <v>16</v>
       </c>
-      <c r="M14" t="n">
-        <v>372922</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>SA400S37/960G</t>
+        </is>
       </c>
       <c r="N14" t="n">
-        <v>7494920</v>
+        <v>2662168</v>
       </c>
     </row>
     <row r="15">
@@ -1189,16 +1183,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KINGSTON FURY</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Renegade 1TB M.2 PCIe 4.0 (SFYRS/1000G)</t>
+          <t>XS2000 1TB USB 3.2 Gen 2x2 Type-C (SXS2000/1000G)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2999</v>
+        <v>3129</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1206,18 +1200,18 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>77</v>
+        <v>78.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2849</v>
+        <v>2983</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
@@ -1226,63 +1220,67 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M15" t="n">
-        <v>378355</v>
+        <v>372922</v>
       </c>
       <c r="N15" t="n">
-        <v>7948148</v>
+        <v>7494920</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Звуковые карты</t>
+          <t>Жесткие диски SSD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>KINGSTON FURY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>USB AUX jack, TRS(Mic + Ear) ALC4042 Black US205 (30724)</t>
+          <t>Renegade 1TB M.2 PCIe 4.0 (SFYRS/1000G)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>2999</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Строгач</t>
+        </is>
+      </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-23.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>2849</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>FuaCM</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="M16" t="n">
-        <v>820035</v>
+        <v>378355</v>
       </c>
       <c r="N16" t="n">
-        <v>8568970</v>
+        <v>7948148</v>
       </c>
     </row>
     <row r="17">
@@ -1302,7 +1300,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
@@ -1310,7 +1308,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-34.3%</t>
+          <t>-41.6%</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1352,7 +1350,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>999</v>
+        <v>949</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
@@ -1360,7 +1358,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1395,16 +1393,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B760 Bloody Black Green Switches</t>
+          <t>Element HB-195 UA Black (45189)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1449</v>
+        <v>239</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
@@ -1412,29 +1410,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>38.19</v>
+        <v>6.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1414</v>
+        <v>237</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="M19" t="n">
-        <v>1604693</v>
+        <v>824394</v>
       </c>
       <c r="N19" t="n">
-        <v>5433267</v>
+        <v>8533394</v>
       </c>
     </row>
     <row r="20">
@@ -1445,16 +1443,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>ERGO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Element HB-195 UA Black (45189)</t>
+          <t>KB-510 Keyboard ENG/RUS/UKR Black (KB-510)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
@@ -1462,14 +1460,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.2</v>
+        <v>8.41</v>
       </c>
       <c r="I20" t="n">
-        <v>237</v>
+        <v>322</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
@@ -1478,13 +1476,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M20" t="n">
-        <v>824394</v>
+        <v>6678966</v>
       </c>
       <c r="N20" t="n">
-        <v>8533394</v>
+        <v>8124659</v>
       </c>
     </row>
     <row r="21">
@@ -1495,16 +1493,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ERGO</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>KB-510 Keyboard ENG/RUS/UKR Black (KB-510)</t>
+          <t>KBS-WM-03-UA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
@@ -1512,29 +1510,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8.41</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M21" t="n">
-        <v>6678966</v>
+        <v>1604021</v>
       </c>
       <c r="N21" t="n">
-        <v>8124659</v>
+        <v>3340270</v>
       </c>
     </row>
     <row r="22">
@@ -1545,16 +1543,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KBS-WM-03-UA</t>
+          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>379</v>
+        <v>2899</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
@@ -1562,14 +1560,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9.609999999999999</v>
+        <v>77.17</v>
       </c>
       <c r="I22" t="n">
-        <v>368</v>
+        <v>2910</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
@@ -1578,13 +1576,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M22" t="n">
-        <v>1604021</v>
+        <v>66172</v>
       </c>
       <c r="N22" t="n">
-        <v>3340270</v>
+        <v>9382884</v>
       </c>
     </row>
     <row r="23">
@@ -1595,16 +1593,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
+          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2949</v>
+        <v>799</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
@@ -1612,81 +1610,81 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>77.17</v>
+        <v>21.11</v>
       </c>
       <c r="I23" t="n">
-        <v>2910</v>
+        <v>807</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>66172</v>
+        <v>16</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>U0566268</t>
+        </is>
       </c>
       <c r="N23" t="n">
-        <v>9382884</v>
+        <v>8494217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>COOLING BABY</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
+          <t>7015 3PS</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>809</v>
+        <v>49</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>21.11</v>
+        <v>1.14</v>
       </c>
       <c r="I24" t="n">
-        <v>807</v>
+        <v>45</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>16</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>U0566268</t>
-        </is>
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>45131</v>
       </c>
       <c r="N24" t="n">
-        <v>8494217</v>
+        <v>2184075</v>
       </c>
     </row>
     <row r="25">
@@ -1697,31 +1695,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COOLING BABY</t>
+          <t>DEEPCOOL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7015 3PS</t>
+          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
+        <v>629</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.14</v>
+        <v>16.8</v>
       </c>
       <c r="I25" t="n">
-        <v>45</v>
+        <v>622</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
@@ -1730,13 +1728,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="M25" t="n">
-        <v>45131</v>
+        <v>427337</v>
       </c>
       <c r="N25" t="n">
-        <v>2184075</v>
+        <v>10031050</v>
       </c>
     </row>
     <row r="26">
@@ -1752,41 +1750,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
+          <t>XFAN 80 (DP-FDC-XF80)</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>629</v>
+        <v>69</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>16.8</v>
+        <v>1.81</v>
       </c>
       <c r="I26" t="n">
-        <v>622</v>
+        <v>69</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>142</v>
-      </c>
-      <c r="M26" t="n">
-        <v>427337</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>10031050</v>
+        <v>-262689</v>
       </c>
     </row>
     <row r="27">
@@ -1797,44 +1793,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>EKWB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>XFAN 80 (DP-FDC-XF80)</t>
+          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>-94.1%</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.81</v>
+        <v>60.64</v>
       </c>
       <c r="I27" t="n">
-        <v>69</v>
+        <v>1686</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>143</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>863</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3831109832639</v>
+      </c>
       <c r="N27" t="n">
-        <v>262689</v>
+        <v>-6363959</v>
       </c>
     </row>
     <row r="28">
@@ -1845,78 +1843,78 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EKWB</t>
+          <t>FRIME</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
+          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-94.1%</t>
+          <t>-32.3%</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>60.64</v>
+        <v>1.15</v>
       </c>
       <c r="I28" t="n">
-        <v>1686</v>
+        <v>43</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>863</v>
+        <v>29</v>
       </c>
       <c r="M28" t="n">
-        <v>3831109832639</v>
+        <v>459285</v>
       </c>
       <c r="N28" t="n">
-        <v>-6363959</v>
+        <v>10093211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Компьютерные кулеры - аксессуары</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRIME</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
+          <t>TG-G1.5-01</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-9.1%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="I29" t="n">
         <v>43</v>
@@ -1928,13 +1926,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>29</v>
-      </c>
-      <c r="M29" t="n">
-        <v>459285</v>
+        <v>9</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>U0114834</t>
+        </is>
       </c>
       <c r="N29" t="n">
-        <v>10093211</v>
+        <v>1291737</v>
       </c>
     </row>
     <row r="30">
@@ -1945,31 +1945,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>ID-COOLING</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TG-G1.5-01</t>
+          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>28.1%</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.12</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
@@ -1978,50 +1978,48 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>9</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>U0114834</t>
-        </is>
+        <v>161</v>
+      </c>
+      <c r="M30" t="n">
+        <v>444082</v>
       </c>
       <c r="N30" t="n">
-        <v>1291737</v>
+        <v>9436713</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры - аксессуары</t>
+          <t>Корпуса</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ID-COOLING</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
+          <t>Abyss-TR</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>159</v>
+        <v>3299</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28.1%</t>
+          <t>-7.6%</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>124</v>
+        <v>3569</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
@@ -2030,13 +2028,13 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="M31" t="n">
-        <v>444082</v>
+        <v>37491</v>
       </c>
       <c r="N31" t="n">
-        <v>9436713</v>
+        <v>7513003</v>
       </c>
     </row>
     <row r="32">
@@ -2052,11 +2050,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Abyss-TR</t>
+          <t xml:space="preserve">Pardo Black </t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3399</v>
+        <v>1399</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
@@ -2064,14 +2062,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>-10.3%</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>94.65000000000001</v>
+        <v>40.26</v>
       </c>
       <c r="I32" t="n">
-        <v>3569</v>
+        <v>1561</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
@@ -2080,13 +2078,13 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="M32" t="n">
-        <v>37491</v>
+        <v>2973145</v>
       </c>
       <c r="N32" t="n">
-        <v>7513003</v>
+        <v>2783798</v>
       </c>
     </row>
     <row r="33">
@@ -2102,11 +2100,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pardo Black </t>
+          <t>ST-610G</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1449</v>
+        <v>1249</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
@@ -2114,14 +2112,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-7.1%</t>
+          <t>-13.4%</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>40.26</v>
+        <v>38.99</v>
       </c>
       <c r="I33" t="n">
-        <v>1561</v>
+        <v>1443</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
@@ -2130,33 +2128,33 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="M33" t="n">
-        <v>2973145</v>
+        <v>44016</v>
       </c>
       <c r="N33" t="n">
-        <v>2783798</v>
+        <v>7732390</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Корпуса</t>
+          <t>Корпуса - аксессуары</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>CABLEXPERT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ST-610G</t>
+          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1299</v>
+        <v>69</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
@@ -2164,14 +2162,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-10.0%</t>
+          <t>-44.8%</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>38.99</v>
+        <v>3.07</v>
       </c>
       <c r="I34" t="n">
-        <v>1443</v>
+        <v>125</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
@@ -2180,33 +2178,33 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="M34" t="n">
-        <v>44016</v>
+        <v>252144</v>
       </c>
       <c r="N34" t="n">
-        <v>7732390</v>
+        <v>5325742</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Корпуса - аксессуары</t>
+          <t>Материнские платы</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CABLEXPERT</t>
+          <t>BIOSTAR</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
+          <t>TZ590-BTC DUO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>79</v>
+        <v>3249</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
@@ -2214,14 +2212,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-36.9%</t>
+          <t>-57.0%</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3.07</v>
+        <v>270</v>
       </c>
       <c r="I35" t="n">
-        <v>125</v>
+        <v>7560</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
@@ -2230,13 +2228,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>241</v>
-      </c>
-      <c r="M35" t="n">
-        <v>252144</v>
+        <v>492</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>TZ590-BTC_DUO</t>
+        </is>
       </c>
       <c r="N35" t="n">
-        <v>5325742</v>
+        <v>8199628</v>
       </c>
     </row>
     <row r="36">
@@ -2247,16 +2247,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIOSTAR</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TZ590-BTC DUO</t>
+          <t>N4120I H</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3499</v>
+        <v>3249</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-53.7%</t>
+          <t>-13.1%</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>270</v>
+        <v>100.99</v>
       </c>
       <c r="I36" t="n">
-        <v>7560</v>
+        <v>3737</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
@@ -2280,15 +2280,13 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>492</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>TZ590-BTC_DUO</t>
-        </is>
+        <v>65</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3703020</v>
       </c>
       <c r="N36" t="n">
-        <v>8199628</v>
+        <v>10040970</v>
       </c>
     </row>
     <row r="37">
@@ -2299,16 +2297,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>NZXT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N4120I H</t>
+          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3499</v>
+        <v>6599</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
@@ -2316,14 +2314,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-6.4%</t>
+          <t>-5.4%</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>100.99</v>
+        <v>185.03</v>
       </c>
       <c r="I37" t="n">
-        <v>3737</v>
+        <v>6976</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
@@ -2332,48 +2330,50 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>65</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3703020</v>
+        <v>45</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>N5-Z69XT-W1</t>
+        </is>
       </c>
       <c r="N37" t="n">
-        <v>10040970</v>
+        <v>10216528</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Микрофоны</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NZXT</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
+          <t>Микрофоны JBL Wireless MIC for PartyBox On-The-Go/310/1000 (JBLWIRELESSMIC)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6799</v>
+        <v>3549</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>185.03</v>
+        <v>83.53</v>
       </c>
       <c r="I38" t="n">
-        <v>6976</v>
+        <v>3191</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
@@ -2382,15 +2382,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>N5-Z69XT-W1</t>
+          <t>JBLWIRELESSMIC</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>10216528</v>
+        <v>6078717</v>
       </c>
     </row>
     <row r="39">
@@ -2401,31 +2401,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Микрофоны JBL Wireless MIC for PartyBox On-The-Go/310/1000 (JBLWIRELESSMIC)</t>
+          <t>E 609</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3899</v>
+        <v>1999</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22.2%</t>
+          <t>-48.1%</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>83.53</v>
+        <v>146.19</v>
       </c>
       <c r="I39" t="n">
-        <v>3191</v>
+        <v>3853</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
@@ -2434,15 +2434,13 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>JBLWIRELESSMIC</t>
-        </is>
+        <v>668</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4522</v>
       </c>
       <c r="N39" t="n">
-        <v>6078717</v>
+        <v>6599676</v>
       </c>
     </row>
     <row r="40">
@@ -2458,11 +2456,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>E 609</t>
+          <t>MD 431-II</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2449</v>
+        <v>6999</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
@@ -2470,14 +2468,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-36.4%</t>
+          <t>-42.6%</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>146.19</v>
+        <v>447.85</v>
       </c>
       <c r="I40" t="n">
-        <v>3853</v>
+        <v>12204</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
@@ -2486,33 +2484,35 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>668</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4522</v>
+        <v>798</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>MD 431-II</t>
+        </is>
       </c>
       <c r="N40" t="n">
-        <v>6599676</v>
+        <v>3235478</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Микрофоны</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>G.SKILL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MD 431-II</t>
+          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7499</v>
+        <v>949</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
@@ -2520,14 +2520,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-38.6%</t>
+          <t>-19.9%</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>447.85</v>
+        <v>32</v>
       </c>
       <c r="I41" t="n">
-        <v>12204</v>
+        <v>1184</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
@@ -2536,15 +2536,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>798</v>
+        <v>87</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>MD 431-II</t>
+          <t>F4-2666C19S-16GRS</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3235478</v>
+        <v>7258586</v>
       </c>
     </row>
     <row r="42">
@@ -2560,26 +2560,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
+          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>979</v>
+        <v>529</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-17.3%</t>
+          <t>-15.9%</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I42" t="n">
-        <v>1184</v>
+        <v>629</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
@@ -2588,15 +2588,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>F4-2666C19S-16GRS</t>
+          <t>U0103402</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>7258586</v>
+        <v>1857277</v>
       </c>
     </row>
     <row r="43">
@@ -2607,31 +2607,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>G.SKILL</t>
+          <t>GOLDEN MEMORY</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
+          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GM16S11/8)</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>569</v>
+        <v>399</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-9.6%</t>
+          <t>-17.1%</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I43" t="n">
-        <v>629</v>
+        <v>481</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
@@ -2640,15 +2640,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>U0103402</t>
+          <t>U0275940</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>1857277</v>
+        <v>2630535</v>
       </c>
     </row>
     <row r="44">
@@ -2659,31 +2659,31 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GOLDEN MEMORY</t>
+          <t>GOODRAM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GM16S11/8)</t>
+          <t>DDR4 8GB, 2400MHz, PC4-19200 (GR2400D464L17S/8G)</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-8.8%</t>
+          <t>-21.6%</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>13</v>
+        <v>17.2</v>
       </c>
       <c r="I44" t="n">
-        <v>481</v>
+        <v>637</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
@@ -2692,15 +2692,13 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>42</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>U0275940</t>
-        </is>
+        <v>81</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6329811</v>
       </c>
       <c r="N44" t="n">
-        <v>2630535</v>
+        <v>2124692</v>
       </c>
     </row>
     <row r="45">
@@ -2716,26 +2714,26 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DDR4 8GB, 2400MHz, PC4-19200 (GR2400D464L17S/8G)</t>
+          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GR1600S364L11/8G)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>549</v>
+        <v>479</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-13.8%</t>
+          <t>-24.4%</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="I45" t="n">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
@@ -2744,33 +2742,31 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>81</v>
-      </c>
-      <c r="M45" t="n">
-        <v>6329811</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>2124692</v>
+        <v>542951</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GOODRAM</t>
+          <t>GOLON</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GR1600S364L11/8G)</t>
+          <t>RX-X8BT Black</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>519</v>
+        <v>229</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
@@ -2778,27 +2774,31 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-18.1%</t>
+          <t>-44.1%</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>16.8</v>
+        <v>10.37</v>
       </c>
       <c r="I46" t="n">
-        <v>634</v>
+        <v>410</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>142</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>276</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>606ba31258e1d3016e42cbfd</t>
+        </is>
+      </c>
       <c r="N46" t="n">
-        <v>542951</v>
+        <v>7262515</v>
       </c>
     </row>
     <row r="47">
@@ -2809,16 +2809,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GOLON</t>
+          <t>HARMAN-KARDON</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>RX-X8BT Black</t>
+          <t>Citation 300 MKII Gray (HKCITATION300GRYEU)</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>239</v>
+        <v>12499</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
@@ -2826,31 +2826,31 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-41.7%</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10.37</v>
+        <v>326.92</v>
       </c>
       <c r="I47" t="n">
-        <v>410</v>
+        <v>12750</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>606ba31258e1d3016e42cbfd</t>
+          <t>HKCITATION300GRYEU</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>7262515</v>
+        <v>4307073</v>
       </c>
     </row>
     <row r="48">
@@ -2861,16 +2861,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HARMAN-KARDON</t>
+          <t>IDANCE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Citation 300 MKII Gray (HKCITATION300GRYEU)</t>
+          <t>Beat Dude Mini 5W Фиолетовая (IBDM-100-PURPLE)</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12499</v>
+        <v>99</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
@@ -2878,14 +2878,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-2.0%</t>
+          <t>-58.7%</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>326.92</v>
+        <v>8.73</v>
       </c>
       <c r="I48" t="n">
-        <v>12750</v>
+        <v>240</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
@@ -2894,15 +2894,13 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>196</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>HKCITATION300GRYEU</t>
-        </is>
+        <v>604</v>
+      </c>
+      <c r="M48" t="n">
+        <v>155764</v>
       </c>
       <c r="N48" t="n">
-        <v>4307073</v>
+        <v>3299547</v>
       </c>
     </row>
     <row r="49">
@@ -2913,16 +2911,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IDANCE</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Beat Dude Mini 5W Фиолетовая (IBDM-100-PURPLE)</t>
+          <t>Clip 4 Eco White (JBLCLIP4ECOWHT)</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>129</v>
+        <v>1949</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
@@ -2930,29 +2928,31 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-46.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>8.73</v>
+        <v>50</v>
       </c>
       <c r="I49" t="n">
-        <v>240</v>
+        <v>1895</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>604</v>
-      </c>
-      <c r="M49" t="n">
-        <v>155764</v>
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>JBLCLIP4ECOWHT</t>
+        </is>
       </c>
       <c r="N49" t="n">
-        <v>3299547</v>
+        <v>-9760781</v>
       </c>
     </row>
     <row r="50">
@@ -2968,11 +2968,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Clip 4 Eco White (JBLCLIP4ECOWHT)</t>
+          <t>Flip Essential 2 (JBLFLIPES2)</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2499</v>
+        <v>2799</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
@@ -2980,31 +2980,29 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>50</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>1861</v>
+        <v>3136</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>115</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>JBLCLIP4ECOWHT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1384165</v>
       </c>
       <c r="N50" t="n">
-        <v>9760781</v>
+        <v>-9151222</v>
       </c>
     </row>
     <row r="51">
@@ -3020,11 +3018,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Flip Essential 2 (JBLFLIPES2)</t>
+          <t>Go 3 Red (JBLGO3RED)</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3499</v>
+        <v>1499</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
@@ -3032,14 +3030,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>82.73999999999999</v>
+        <v>38.25</v>
       </c>
       <c r="I51" t="n">
-        <v>3078</v>
+        <v>1462</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
@@ -3048,13 +3046,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>115</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1384165</v>
+        <v>3</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>JBLGO3RED</t>
+        </is>
       </c>
       <c r="N51" t="n">
-        <v>9151222</v>
+        <v>5590190</v>
       </c>
     </row>
     <row r="52">
@@ -3070,11 +3070,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Go 3 Red (JBLGO3RED)</t>
+          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1499</v>
+        <v>7749</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
@@ -3082,31 +3082,31 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>38.25</v>
+        <v>201.64</v>
       </c>
       <c r="I52" t="n">
-        <v>1462</v>
+        <v>7643</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>JBLGO3RED</t>
+          <t>JBLPULSE5BLK</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>5590190</v>
+        <v>-9648680</v>
       </c>
     </row>
     <row r="53">
@@ -3122,11 +3122,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Go Essential Black (JBLGOESBLK)</t>
+          <t>Акустика JBL Link Portable Gray (JBLLINKPORGRY)</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>999</v>
+        <v>4349</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
@@ -3134,29 +3134,31 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>22.6</v>
+        <v>113.79</v>
       </c>
       <c r="I53" t="n">
-        <v>853</v>
+        <v>4313</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>46</v>
-      </c>
-      <c r="M53" t="n">
-        <v>6814832</v>
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>5f4d44b0ea159163986f0b8d</t>
+        </is>
       </c>
       <c r="N53" t="n">
-        <v>8962442</v>
+        <v>-5408227</v>
       </c>
     </row>
     <row r="54">
@@ -3167,16 +3169,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>MADISON</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
+          <t>MAD-Link 100</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9499</v>
+        <v>4099</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
@@ -3184,14 +3186,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>201.64</v>
+        <v>106.22</v>
       </c>
       <c r="I54" t="n">
-        <v>7602</v>
+        <v>4026</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
@@ -3200,15 +3202,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>JBLPULSE5BLK</t>
+          <t>10-5755MA</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>9648680</v>
+        <v>3492595</v>
       </c>
     </row>
     <row r="55">
@@ -3219,16 +3221,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>MICROLAB</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Акустика JBL Link Portable Gray (JBLLINKPORGRY)</t>
+          <t>M-100 Black</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5499</v>
+        <v>699</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
@@ -3236,31 +3238,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>-33.4%</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>113.79</v>
+        <v>27.48</v>
       </c>
       <c r="I55" t="n">
-        <v>4290</v>
+        <v>1050</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>123</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>5f4d44b0ea159163986f0b8d</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>5408227</v>
+        <v>-224185</v>
       </c>
     </row>
     <row r="56">
@@ -3271,16 +3269,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MICROLAB</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>M-100 Black</t>
+          <t>Mi Portable Bluetooth Speaker mini (BHR4802GL, XMYX04WM)</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
@@ -3288,47 +3286,51 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-28.7%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>27.48</v>
+        <v>20.14</v>
       </c>
       <c r="I56" t="n">
-        <v>1050</v>
+        <v>760</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>11</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>BHR4802GL</t>
+        </is>
+      </c>
       <c r="N56" t="n">
-        <v>-224185</v>
+        <v>6126020</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mi Portable Bluetooth Speaker mini (BHR4802GL, XMYX04WM)</t>
+          <t>G3-200N Black</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>739</v>
+        <v>239</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
@@ -3336,14 +3338,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-2.7%</t>
+          <t>-8.1%</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>20.14</v>
+        <v>7.02</v>
       </c>
       <c r="I57" t="n">
-        <v>760</v>
+        <v>260</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
@@ -3352,15 +3354,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>BHR4802GL</t>
+          <t>0202631</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>6126020</v>
+        <v>711316</v>
       </c>
     </row>
     <row r="58">
@@ -3376,11 +3378,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>G3-200N Black</t>
+          <t>OP-620D USB Black</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
@@ -3388,31 +3390,27 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>26.4%</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>7.02</v>
+        <v>3.94</v>
       </c>
       <c r="I58" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>59</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>0202631</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>711316</v>
+        <v>48972</v>
       </c>
     </row>
     <row r="59">
@@ -3428,11 +3426,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>OP-620D USB Black</t>
+          <t>OP-720 USB Black</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
@@ -3440,27 +3438,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>33.0%</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3.94</v>
+        <v>3.74</v>
       </c>
       <c r="I59" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>48972</v>
+        <v>83150</v>
       </c>
     </row>
     <row r="60">
@@ -3471,16 +3469,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>OP-720 USB Black</t>
+          <t>Point MM-756 Black (52756)</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
@@ -3488,14 +3486,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-8.7%</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3.74</v>
+        <v>2.26</v>
       </c>
       <c r="I60" t="n">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
@@ -3506,9 +3504,11 @@
       <c r="L60" t="n">
         <v>16</v>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>620102</v>
+      </c>
       <c r="N60" t="n">
-        <v>83150</v>
+        <v>4085857</v>
       </c>
     </row>
     <row r="61">
@@ -3519,16 +3519,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Point MM-756 Black (52756)</t>
+          <t>Мышка Gembird MUS-6B-02 USB Black (MUS-6B-02)</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
@@ -3536,29 +3536,31 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-22.0%</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2.26</v>
+        <v>5.5</v>
       </c>
       <c r="I61" t="n">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>16</v>
-      </c>
-      <c r="M61" t="n">
-        <v>620102</v>
+        <v>51</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>U0720798</t>
+        </is>
       </c>
       <c r="N61" t="n">
-        <v>4085857</v>
+        <v>10063053</v>
       </c>
     </row>
     <row r="62">
@@ -3569,16 +3571,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>GENIUS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Мышка Gembird MUS-6B-02 USB Black (MUS-6B-02)</t>
+          <t>DX-125 USB Black (31010106100)</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
@@ -3586,14 +3588,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-17.1%</t>
+          <t>9.7%</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="I62" t="n">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
@@ -3602,15 +3604,13 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>51</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>U0720798</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>6261261</v>
       </c>
       <c r="N62" t="n">
-        <v>10063053</v>
+        <v>1839100</v>
       </c>
     </row>
     <row r="63">
@@ -3621,16 +3621,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GLORIOUS</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Model O Matte White (GO-White)</t>
+          <t>Мышь беспроводная Pulsar Wireless (HTM-317) Lilac</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1999</v>
+        <v>1249</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
@@ -3638,29 +3638,29 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>48.06</v>
+        <v>32.42</v>
       </c>
       <c r="I63" t="n">
-        <v>1836</v>
+        <v>1229</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>64374</v>
+        <v>66038</v>
       </c>
       <c r="N63" t="n">
-        <v>4212244</v>
+        <v>-9303637</v>
       </c>
     </row>
     <row r="64">
@@ -3671,16 +3671,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>HEWLETT PACKARD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Мышь Pulsar Essential (HTM-308) Yellow</t>
+          <t>Мишка HP 125 Wired, 3кн., 1200 dpi, чорна (265A9AA)</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>799</v>
+        <v>229</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
@@ -3688,29 +3688,29 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29.1%</t>
+          <t>-17.2%</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>16.2</v>
+        <v>7.24</v>
       </c>
       <c r="I64" t="n">
-        <v>619</v>
+        <v>277</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M64" t="n">
-        <v>66042</v>
+        <v>810643</v>
       </c>
       <c r="N64" t="n">
-        <v>9400866</v>
+        <v>6899120</v>
       </c>
     </row>
     <row r="65">
@@ -3721,46 +3721,48 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>IMICE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Мышь беспроводная Pulsar Wireless (HTM-317) Lilac</t>
+          <t>E-1800 Black</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1799</v>
+        <v>69</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>-43.0%</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>32.42</v>
+        <v>4.5</v>
       </c>
       <c r="I65" t="n">
-        <v>1200</v>
+        <v>122</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>FuaCM</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>46</v>
-      </c>
-      <c r="M65" t="n">
-        <v>66038</v>
+        <v>765</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>5dd3b30f5ca49a0052a3ff8e</t>
+        </is>
       </c>
       <c r="N65" t="n">
-        <v>9303637</v>
+        <v>5044681</v>
       </c>
     </row>
     <row r="66">
@@ -3771,16 +3773,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HEWLETT PACKARD</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Мишка HP 125 Wired, 3кн., 1200 dpi, чорна (265A9AA)</t>
+          <t>Legion M600s Wireless GM (GY51H47354)</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>239</v>
+        <v>2399</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
@@ -3788,29 +3790,29 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>-16.7%</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>7.24</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>277</v>
+        <v>2880</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="M66" t="n">
-        <v>810643</v>
+        <v>3717833</v>
       </c>
       <c r="N66" t="n">
-        <v>6899120</v>
+        <v>9367262</v>
       </c>
     </row>
     <row r="67">
@@ -3821,48 +3823,46 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>IMICE</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>E-1800 Black</t>
+          <t>G502 Hero USB Black</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>79</v>
+        <v>1349</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-34.9%</t>
+          <t>-32.5%</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>4.5</v>
+        <v>53</v>
       </c>
       <c r="I67" t="n">
-        <v>122</v>
+        <v>1999</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>FuaCM</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>765</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>5dd3b30f5ca49a0052a3ff8e</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="M67" t="n">
+        <v>246576</v>
       </c>
       <c r="N67" t="n">
-        <v>5044681</v>
+        <v>-3143597</v>
       </c>
     </row>
     <row r="68">
@@ -3873,16 +3873,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>MEDIA-TECH</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Legion M600s Wireless GM (GY51H47354)</t>
+          <t>COBRA PRO (MT1115)</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2449</v>
+        <v>239</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
@@ -3890,29 +3890,29 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-15.0%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>77.81999999999999</v>
+        <v>6.09</v>
       </c>
       <c r="I68" t="n">
-        <v>2880</v>
+        <v>233</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="M68" t="n">
-        <v>3717833</v>
+        <v>150729</v>
       </c>
       <c r="N68" t="n">
-        <v>9367262</v>
+        <v>2449527</v>
       </c>
     </row>
     <row r="69">
@@ -3923,16 +3923,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>G502 Hero USB Black</t>
+          <t>Clutch GM41 Lightweight Wireless V2 (S12-0400D20-C54)</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1449</v>
+        <v>999</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
@@ -3940,29 +3940,31 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-27.5%</t>
+          <t>-42.3%</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>53</v>
+        <v>44.7</v>
       </c>
       <c r="I69" t="n">
-        <v>1999</v>
+        <v>1733</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>24</v>
-      </c>
-      <c r="M69" t="n">
-        <v>246576</v>
+        <v>163</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>S12-0400D20-C54</t>
+        </is>
       </c>
       <c r="N69" t="n">
-        <v>-3143597</v>
+        <v>8517305</v>
       </c>
     </row>
     <row r="70">
@@ -3973,16 +3975,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MEDIA-TECH</t>
+          <t>PROMATE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>COBRA PRO (MT1115)</t>
+          <t>Мышь Kitt Wireless white (kitt.white)</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
@@ -3990,29 +3992,31 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>6.09</v>
+        <v>10.49</v>
       </c>
       <c r="I70" t="n">
-        <v>233</v>
+        <v>398</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>8</v>
-      </c>
-      <c r="M70" t="n">
-        <v>150729</v>
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>7099995|84d1e622-bd92-11ed-9105-a4bf014d67ab</t>
+        </is>
       </c>
       <c r="N70" t="n">
-        <v>2449527</v>
+        <v>9934165</v>
       </c>
     </row>
     <row r="71">
@@ -4023,16 +4027,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>STEELSERIES</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Clutch GM41 Lightweight Wireless V2 (S12-0400D20-C54)</t>
+          <t>Rival 5 (62551)</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1049</v>
+        <v>1799</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
@@ -4040,31 +4044,29 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-39.5%</t>
+          <t>-19.1%</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>44.7</v>
+        <v>58.63</v>
       </c>
       <c r="I71" t="n">
-        <v>1733</v>
+        <v>2223</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>163</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>S12-0400D20-C54</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>65549</v>
       </c>
       <c r="N71" t="n">
-        <v>8517305</v>
+        <v>-7128903</v>
       </c>
     </row>
     <row r="72">
@@ -4075,16 +4077,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROMATE</t>
+          <t>VERTUX</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Мышь Kitt Wireless white (kitt.white)</t>
+          <t>Dominator USB Grey (dominator.grey)</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
@@ -4092,31 +4094,31 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12.9%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>10.49</v>
+        <v>12.26</v>
       </c>
       <c r="I72" t="n">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>7099995|84d1e622-bd92-11ed-9105-a4bf014d67ab</t>
+          <t>4072486|75dc153b-f936-11eb-90f5-b4a9fc43a3f9</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>9934165</v>
+        <v>7309538</v>
       </c>
     </row>
     <row r="73">
@@ -4127,16 +4129,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>STEELSERIES</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rival 5 (62551)</t>
+          <t>MS-680 Black</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1799</v>
+        <v>99</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
@@ -4144,14 +4146,14 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>11.8%</t>
+          <t>-4.8%</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>58.63</v>
+        <v>2.72</v>
       </c>
       <c r="I73" t="n">
-        <v>1610</v>
+        <v>104</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
@@ -4160,85 +4162,83 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>634</v>
+        <v>7</v>
       </c>
       <c r="M73" t="n">
-        <v>65549</v>
+        <v>63571</v>
       </c>
       <c r="N73" t="n">
-        <v>7128903</v>
+        <v>3114114</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VERTUX</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dominator USB Grey (dominator.grey)</t>
+          <t>Journey 6шт. (50415)</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>499</v>
+        <v>39</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>-46.4%</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>12.26</v>
+        <v>1.95</v>
       </c>
       <c r="I74" t="n">
-        <v>464</v>
+        <v>73</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>4072486|75dc153b-f936-11eb-90f5-b4a9fc43a3f9</t>
-        </is>
+        <v>65</v>
+      </c>
+      <c r="M74" t="n">
+        <v>132815</v>
       </c>
       <c r="N74" t="n">
-        <v>7309538</v>
+        <v>1714050</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MS-680 Black</t>
+          <t>Notebook Microfiber</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
@@ -4246,14 +4246,14 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>-51.3%</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2.72</v>
+        <v>1.57</v>
       </c>
       <c r="I75" t="n">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M75" t="n">
-        <v>63571</v>
+        <v>5780304</v>
       </c>
       <c r="N75" t="n">
-        <v>3114114</v>
+        <v>752893</v>
       </c>
     </row>
     <row r="76">
@@ -4279,31 +4279,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Journey 6шт. (50415)</t>
+          <t>Игровой коврик Desk Mat Studio Series-Darker Rose (956-000053)</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>49</v>
+        <v>849</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-32.2%</t>
+          <t>-4.1%</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1.95</v>
+        <v>23.48</v>
       </c>
       <c r="I76" t="n">
-        <v>73</v>
+        <v>886</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
@@ -4312,13 +4312,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>65</v>
-      </c>
-      <c r="M76" t="n">
-        <v>132815</v>
+        <v>16</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>6514865|84ceb238-785e-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N76" t="n">
-        <v>1714050</v>
+        <v>8452967</v>
       </c>
     </row>
     <row r="77">
@@ -4329,16 +4331,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>PODMЫSHKU</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Notebook Microfiber</t>
+          <t>Ferrari</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
@@ -4346,14 +4348,14 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-34.7%</t>
+          <t>-15.3%</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1.57</v>
+        <v>0.89</v>
       </c>
       <c r="I77" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
@@ -4362,13 +4364,11 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>14</v>
-      </c>
-      <c r="M77" t="n">
-        <v>5780304</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>752893</v>
+        <v>393844</v>
       </c>
     </row>
     <row r="78">
@@ -4379,16 +4379,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Игровой коврик Desk Mat Studio Series-Darker Rose (956-000053)</t>
+          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>899</v>
+        <v>2149</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
@@ -4396,51 +4396,49 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-18.1%</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>23.48</v>
+        <v>69.23</v>
       </c>
       <c r="I78" t="n">
-        <v>886</v>
+        <v>2624</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>16</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>6514865|84ceb238-785e-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>64013</v>
       </c>
       <c r="N78" t="n">
-        <v>8452967</v>
+        <v>-4161739</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PODMЫSHKU</t>
+          <t>BOROFONE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ferrari</t>
+          <t>BW26 White (BW26W)</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
@@ -4448,47 +4446,49 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13.7%</t>
+          <t>-7.5%</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.89</v>
+        <v>8</v>
       </c>
       <c r="I79" t="n">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="M79" t="n">
+        <v>24160</v>
+      </c>
       <c r="N79" t="n">
-        <v>393844</v>
+        <v>9599567</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>CANYON</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
+          <t>CNE-CEPM01B Black</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2799</v>
+        <v>129</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
@@ -4496,29 +4496,29 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>69.23</v>
+        <v>3.55</v>
       </c>
       <c r="I80" t="n">
-        <v>1890</v>
+        <v>136</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>793</v>
+        <v>16</v>
       </c>
       <c r="M80" t="n">
-        <v>64013</v>
+        <v>53945</v>
       </c>
       <c r="N80" t="n">
-        <v>4161739</v>
+        <v>5221340</v>
       </c>
     </row>
     <row r="81">
@@ -4529,16 +4529,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BOROFONE</t>
+          <t>GAMEPRO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BW26 White (BW26W)</t>
+          <t>HS382 Black</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>299</v>
+        <v>489</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
@@ -4546,29 +4546,31 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>8</v>
+        <v>12.8</v>
       </c>
       <c r="I81" t="n">
-        <v>296</v>
+        <v>489</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>74</v>
-      </c>
-      <c r="M81" t="n">
-        <v>24160</v>
+        <v>4</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>7163893|399af365-cf0e-11ed-9105-a4bf014d67ab</t>
+        </is>
       </c>
       <c r="N81" t="n">
-        <v>9599567</v>
+        <v>10180375</v>
       </c>
     </row>
     <row r="82">
@@ -4579,16 +4581,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CANYON</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CNE-CEPM01B Black</t>
+          <t>Hypergang 7.1 USB Black (HTA-840)</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>139</v>
+        <v>1999</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
@@ -4596,29 +4598,29 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>3.55</v>
+        <v>45.66</v>
       </c>
       <c r="I82" t="n">
-        <v>136</v>
+        <v>1731</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>53945</v>
+        <v>453818</v>
       </c>
       <c r="N82" t="n">
-        <v>5221340</v>
+        <v>-9769963</v>
       </c>
     </row>
     <row r="83">
@@ -4629,16 +4631,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GAMEPRO</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>HS382 Black</t>
+          <t>Hypergang EVO (HTA-810)</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>499</v>
+        <v>1449</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
@@ -4646,31 +4648,29 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>12.8</v>
+        <v>35.12</v>
       </c>
       <c r="I83" t="n">
-        <v>489</v>
+        <v>1332</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>7163893|399af365-cf0e-11ed-9105-a4bf014d67ab</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>294440</v>
       </c>
       <c r="N83" t="n">
-        <v>10180375</v>
+        <v>-4205308</v>
       </c>
     </row>
     <row r="84">
@@ -4686,11 +4686,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Hypergang 7.1 USB Black (HTA-840)</t>
+          <t>Hypergang EVO Elite Black (HTA-830)</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2199</v>
+        <v>1549</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
@@ -4698,29 +4698,29 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>45.66</v>
+        <v>40.39</v>
       </c>
       <c r="I84" t="n">
-        <v>1690</v>
+        <v>1531</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>453818</v>
+        <v>65623</v>
       </c>
       <c r="N84" t="n">
-        <v>9769963</v>
+        <v>-8355541</v>
       </c>
     </row>
     <row r="85">
@@ -4731,16 +4731,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>HYPERX</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Hypergang EVO (HTA-810)</t>
+          <t>Cloud Core 7.1 Black (4P4F2AA)</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1699</v>
+        <v>2699</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
@@ -4748,29 +4748,31 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>35.12</v>
+        <v>68.03</v>
       </c>
       <c r="I85" t="n">
-        <v>1300</v>
+        <v>2599</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>65</v>
-      </c>
-      <c r="M85" t="n">
-        <v>294440</v>
+        <v>9</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>U0455426</t>
+        </is>
       </c>
       <c r="N85" t="n">
-        <v>4205308</v>
+        <v>5299847</v>
       </c>
     </row>
     <row r="86">
@@ -4781,16 +4783,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Hypergang EVO Elite Black (HTA-830)</t>
+          <t>Live Flex Black (JBLLIVEFLEXBLK)</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1999</v>
+        <v>3999</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
@@ -4798,29 +4800,31 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>40.39</v>
+        <v>102.65</v>
       </c>
       <c r="I86" t="n">
-        <v>1495</v>
+        <v>3891</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>65</v>
-      </c>
-      <c r="M86" t="n">
-        <v>65623</v>
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>JBLLIVEFLEXBLK</t>
+        </is>
       </c>
       <c r="N86" t="n">
-        <v>8355541</v>
+        <v>-10160854</v>
       </c>
     </row>
     <row r="87">
@@ -4831,16 +4835,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HYPERX</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cloud Core 7.1 Black (4P4F2AA)</t>
+          <t>Live Flex Silver (JBLLIVEFLEXSVR)</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3499</v>
+        <v>4999</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
@@ -4848,14 +4852,14 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>68.03</v>
+        <v>100.21</v>
       </c>
       <c r="I87" t="n">
-        <v>2599</v>
+        <v>3798</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
@@ -4864,15 +4868,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>U0455426</t>
+          <t>JBLLIVEFLEXSVR</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>5299847</v>
+        <v>10160857</v>
       </c>
     </row>
     <row r="88">
@@ -4888,11 +4892,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Live Flex Black (JBLLIVEFLEXBLK)</t>
+          <t>T110 Black (JBLT110BLK)</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4999</v>
+        <v>299</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
@@ -4900,31 +4904,29 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>102.65</v>
+        <v>6.05</v>
       </c>
       <c r="I88" t="n">
-        <v>3799</v>
+        <v>230</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>53</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>JBLLIVEFLEXBLK</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>275085</v>
       </c>
       <c r="N88" t="n">
-        <v>10160854</v>
+        <v>2085204</v>
       </c>
     </row>
     <row r="89">
@@ -4940,11 +4942,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Live Flex Silver (JBLLIVEFLEXSVR)</t>
+          <t>T110 White (JBLT110WHT)</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4999</v>
+        <v>299</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
@@ -4952,31 +4954,29 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>100.21</v>
+        <v>5.73</v>
       </c>
       <c r="I89" t="n">
-        <v>3798</v>
+        <v>218</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>JBLLIVEFLEXSVR</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>268085</v>
       </c>
       <c r="N89" t="n">
-        <v>10160857</v>
+        <v>2085272</v>
       </c>
     </row>
     <row r="90">
@@ -4992,11 +4992,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>T110 Black (JBLT110BLK)</t>
+          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>299</v>
+        <v>1349</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
@@ -5004,29 +5004,29 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>6</v>
+        <v>36.2</v>
       </c>
       <c r="I90" t="n">
-        <v>222</v>
+        <v>1372</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>275085</v>
+        <v>1392907</v>
       </c>
       <c r="N90" t="n">
-        <v>2085204</v>
+        <v>-9865027</v>
       </c>
     </row>
     <row r="91">
@@ -5037,16 +5037,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>JVC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>T110 White (JBLT110WHT)</t>
+          <t>GG-01 Black (GG01BQ)</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>299</v>
+        <v>2799</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
@@ -5054,29 +5054,29 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>5.73</v>
+        <v>73.7</v>
       </c>
       <c r="I91" t="n">
-        <v>218</v>
+        <v>2727</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M91" t="n">
-        <v>268085</v>
+        <v>53408</v>
       </c>
       <c r="N91" t="n">
-        <v>2085272</v>
+        <v>10504769</v>
       </c>
     </row>
     <row r="92">
@@ -5087,16 +5087,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
+          <t>Essential Stereo Headset (4XD0K25030)</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1699</v>
+        <v>499</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
@@ -5104,14 +5104,14 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>24.5%</t>
+          <t>-43.3%</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>36.2</v>
+        <v>23.76</v>
       </c>
       <c r="I92" t="n">
-        <v>1365</v>
+        <v>880</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
@@ -5120,13 +5120,13 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M92" t="n">
-        <v>1392907</v>
+        <v>3712243</v>
       </c>
       <c r="N92" t="n">
-        <v>9865027</v>
+        <v>6907039</v>
       </c>
     </row>
     <row r="93">
@@ -5137,16 +5137,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JVC</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GG-01 Black (GG01BQ)</t>
+          <t>RP-HJE125E Pink</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3699</v>
+        <v>179</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
@@ -5154,29 +5154,29 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>35.6%</t>
+          <t>-29.7%</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>73.7</v>
+        <v>6.66</v>
       </c>
       <c r="I93" t="n">
-        <v>2727</v>
+        <v>255</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M93" t="n">
-        <v>53408</v>
+        <v>6040397</v>
       </c>
       <c r="N93" t="n">
-        <v>10504769</v>
+        <v>571148</v>
       </c>
     </row>
     <row r="94">
@@ -5187,16 +5187,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Essential Stereo Headset (4XD0K25030)</t>
+          <t>RP-HJE125E Red</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>529</v>
+        <v>179</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
@@ -5204,29 +5204,27 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-39.9%</t>
+          <t>-29.7%</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>23.76</v>
+        <v>6.66</v>
       </c>
       <c r="I94" t="n">
-        <v>880</v>
+        <v>255</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>63</v>
-      </c>
-      <c r="M94" t="n">
-        <v>3712243</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>6907039</v>
+        <v>572643</v>
       </c>
     </row>
     <row r="95">
@@ -5242,11 +5240,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>RP-HJE125E Pink</t>
+          <t>RP-HJE125E Violet</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
@@ -5254,14 +5252,14 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-21.8%</t>
+          <t>-28.8%</t>
         </is>
       </c>
       <c r="H95" t="n">
         <v>6.66</v>
       </c>
       <c r="I95" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
@@ -5270,13 +5268,11 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>9</v>
-      </c>
-      <c r="M95" t="n">
-        <v>6040397</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>571148</v>
+        <v>571147</v>
       </c>
     </row>
     <row r="96">
@@ -5287,16 +5283,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>PHILIPS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>RP-HJE125E Red</t>
+          <t>SHP2500/10</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>199</v>
+        <v>749</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
@@ -5304,27 +5300,27 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-21.8%</t>
+          <t>-8.0%</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>6.66</v>
+        <v>22</v>
       </c>
       <c r="I96" t="n">
-        <v>255</v>
+        <v>814</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
-        <v>572643</v>
+        <v>198674</v>
       </c>
     </row>
     <row r="97">
@@ -5335,16 +5331,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>PROMATE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>RP-HJE125E Violet</t>
+          <t>Наушники Terra red (terra.maroon)</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>199</v>
+        <v>499</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
@@ -5352,27 +5348,31 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-20.8%</t>
+          <t>-44.6%</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>6.66</v>
+        <v>22.78</v>
       </c>
       <c r="I97" t="n">
-        <v>252</v>
+        <v>900</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>25</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>6468257|10781dd4-5f07-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
+      </c>
       <c r="N97" t="n">
-        <v>571147</v>
+        <v>9099706</v>
       </c>
     </row>
     <row r="98">
@@ -5383,16 +5383,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PHILIPS</t>
+          <t>WUW</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SHP2500/10</t>
+          <t>R24 type-C with mic white (WUW-R24)</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>799</v>
+        <v>29</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
@@ -5400,14 +5400,14 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>-27.6%</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>22</v>
+        <v>0.99</v>
       </c>
       <c r="I98" t="n">
-        <v>814</v>
+        <v>40</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
@@ -5416,11 +5416,13 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>64</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="M98" t="n">
+        <v>113920</v>
+      </c>
       <c r="N98" t="n">
-        <v>198674</v>
+        <v>6810524</v>
       </c>
     </row>
     <row r="99">
@@ -5431,16 +5433,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PROMATE</t>
+          <t>WUW</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Наушники Terra red (terra.maroon)</t>
+          <t>R31 with mic white (WUW-R31)</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>529</v>
+        <v>39</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
@@ -5448,14 +5450,14 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-41.2%</t>
+          <t>-12.0%</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>22.78</v>
+        <v>1.15</v>
       </c>
       <c r="I99" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
@@ -5464,15 +5466,13 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>255</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>6468257|10781dd4-5f07-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="M99" t="n">
+        <v>113918</v>
       </c>
       <c r="N99" t="n">
-        <v>9099706</v>
+        <v>6810525</v>
       </c>
     </row>
     <row r="100">
@@ -5483,16 +5483,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EO-IC100BBEGRU Black</t>
+          <t>Redmi Buds 4 Lite White (BHR6919GL)</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>549</v>
+        <v>749</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
@@ -5500,49 +5500,49 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>15.3%</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I100" t="n">
-        <v>535</v>
+        <v>650</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>6537049</v>
+        <v>975751</v>
       </c>
       <c r="N100" t="n">
-        <v>4102014</v>
+        <v>9759843</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Планшетные ПК</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WUW</t>
+          <t>PRESTIGIO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>R24 type-C with mic white (WUW-R24)</t>
+          <t>Q Mini 4137 4G 1/16GB Black (PMT4137_4G_D_EU)</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>39</v>
+        <v>2049</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
@@ -5550,14 +5550,14 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0.99</v>
+        <v>54.09</v>
       </c>
       <c r="I101" t="n">
-        <v>40</v>
+        <v>2051</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
@@ -5566,48 +5566,50 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>214</v>
-      </c>
-      <c r="M101" t="n">
-        <v>113920</v>
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>PMT4137_4G_D_EU</t>
+        </is>
       </c>
       <c r="N101" t="n">
-        <v>6810524</v>
+        <v>7332319</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Планшетные ПК</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>WUW</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>R31 with mic white (WUW-R31)</t>
+          <t>Galaxy Tab A8 10.5 3/32GB LTE Dark Grey (SM-X205NZAA) Open Box</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>49</v>
+        <v>5749</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10.4%</t>
+          <t>-20.7%</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>1.15</v>
+        <v>196</v>
       </c>
       <c r="I102" t="n">
-        <v>44</v>
+        <v>7252</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
@@ -5616,33 +5618,35 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>14</v>
-      </c>
-      <c r="M102" t="n">
-        <v>113918</v>
+        <v>46</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>STH0010456</t>
+        </is>
       </c>
       <c r="N102" t="n">
-        <v>6810525</v>
+        <v>8673211</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Планшетные ПК</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>TECLAST</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mi Piston Fresh Bloom Black (ZBW4308GL)</t>
+          <t>P40HD 4/64GB Gray</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>299</v>
+        <v>4799</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
@@ -5650,14 +5654,14 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>8</v>
+        <v>125.92</v>
       </c>
       <c r="I103" t="n">
-        <v>306</v>
+        <v>4811</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
@@ -5666,35 +5670,33 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>10</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>Р26839</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="M103" t="n">
+        <v>6940709684672</v>
       </c>
       <c r="N103" t="n">
-        <v>1821073</v>
+        <v>9398019</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Процессоры</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Redmi Buds 4 Lite White (BHR6919GL)</t>
+          <t>Pro A8-8670E (AD867BAHM44AB)</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>779</v>
+        <v>599</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
@@ -5702,64 +5704,64 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>19.9%</t>
+          <t>-48.4%</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I104" t="n">
-        <v>650</v>
+        <v>1160</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="M104" t="n">
-        <v>975751</v>
+        <v>383083</v>
       </c>
       <c r="N104" t="n">
-        <v>9759843</v>
+        <v>8143539</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>BLACKVIEW</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8 10.5 3/32GB LTE Dark Grey (SM-X205NZAA) Open Box</t>
+          <t>A55 Pro 4/64GB Cloud White</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5999</v>
+        <v>3149</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-17.3%</t>
+          <t>-9.7%</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>196</v>
+        <v>94.2</v>
       </c>
       <c r="I105" t="n">
-        <v>7252</v>
+        <v>3486</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
@@ -5768,35 +5770,35 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>STH0010456</t>
+          <t>STH0012050</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>8673211</v>
+        <v>8785221</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TECLAST</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>P40HD 4/64GB Gray</t>
+          <t>S60 Black</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4849</v>
+        <v>7249</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
@@ -5804,49 +5806,49 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-57.7%</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>125.92</v>
+        <v>439</v>
       </c>
       <c r="I106" t="n">
-        <v>4811</v>
+        <v>17121</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="M106" t="n">
-        <v>6940709684672</v>
+        <v>47732</v>
       </c>
       <c r="N106" t="n">
-        <v>9398019</v>
+        <v>-1908276</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Процессоры</t>
+          <t>Телефоны мобильные</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>MAXCOM</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Pro A8-8670E (AD867BAHM44AB)</t>
+          <t>Classic MM142 Gray</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>699</v>
+        <v>499</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
@@ -5854,14 +5856,14 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-39.8%</t>
+          <t>-16.2%</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>29</v>
+        <v>15.78</v>
       </c>
       <c r="I107" t="n">
-        <v>1160</v>
+        <v>595</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
@@ -5870,13 +5872,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>200</v>
-      </c>
-      <c r="M107" t="n">
-        <v>383083</v>
+        <v>36</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>00-00039645</t>
+        </is>
       </c>
       <c r="N107" t="n">
-        <v>8143539</v>
+        <v>3243072</v>
       </c>
     </row>
     <row r="108">
@@ -5887,16 +5891,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BLACKVIEW</t>
+          <t>MOTOROLA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>A55 Pro 4/64GB Cloud White</t>
+          <t>G32 8/256GB Rose Gold (PAUU0051RS)</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3199</v>
+        <v>6499</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
@@ -5904,14 +5908,14 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-8.2%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>94.2</v>
+        <v>162.51</v>
       </c>
       <c r="I108" t="n">
-        <v>3486</v>
+        <v>6160</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
@@ -5920,15 +5924,13 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>38</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>STH0012050</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>994657</v>
       </c>
       <c r="N108" t="n">
-        <v>8785221</v>
+        <v>10627694</v>
       </c>
     </row>
     <row r="109">
@@ -5939,16 +5941,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>NOKIA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>S60 Black</t>
+          <t>105 Dual Sim 2023 Red</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>7499</v>
+        <v>729</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
@@ -5956,29 +5958,29 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-56.2%</t>
+          <t>-7.7%</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>439</v>
+        <v>21.34</v>
       </c>
       <c r="I109" t="n">
-        <v>17121</v>
+        <v>790</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="M109" t="n">
-        <v>47732</v>
+        <v>464897</v>
       </c>
       <c r="N109" t="n">
-        <v>-1908276</v>
+        <v>10295775</v>
       </c>
     </row>
     <row r="110">
@@ -5989,16 +5991,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GOOGLE</t>
+          <t>NOKIA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Pixel 6 8/128GB Stormy Black</t>
+          <t>130 Dual Sim 2023 Light Gold</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>14549</v>
+        <v>1199</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
@@ -6006,14 +6008,14 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>365</v>
+        <v>30.76</v>
       </c>
       <c r="I110" t="n">
-        <v>13834</v>
+        <v>1166</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
@@ -6022,15 +6024,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>STH0010126</t>
+          <t>130 Dual Sim 2023 Light Gold</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>8217466</v>
+        <v>10643747</v>
       </c>
     </row>
     <row r="111">
@@ -6041,16 +6043,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>HONOR</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>20 Pro 8/256GB Green</t>
+          <t>Galaxy A73 5G 6/128GB White (SM-A736BZWDSEK)</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>10915</v>
+        <v>14599</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
@@ -6058,14 +6060,14 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-6.0%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>304</v>
+        <v>386.9</v>
       </c>
       <c r="I111" t="n">
-        <v>11613</v>
+        <v>14780</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
@@ -6074,15 +6076,13 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>STH0003652</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="M111" t="n">
+        <v>79230</v>
       </c>
       <c r="N111" t="n">
-        <v>9199476</v>
+        <v>8690907</v>
       </c>
     </row>
     <row r="112">
@@ -6093,16 +6093,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MAXCOM</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Classic MM142 Gray</t>
+          <t>Galaxy S10 128GB Green 1 Sim (G973U) USA Open Box</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>549</v>
+        <v>6999</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
@@ -6110,31 +6110,31 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-7.8%</t>
+          <t>-42.1%</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>15.78</v>
+        <v>325</v>
       </c>
       <c r="I112" t="n">
-        <v>595</v>
+        <v>12091</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>00-00039645</t>
+          <t>STH0011954</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3243072</v>
+        <v>-8771626</v>
       </c>
     </row>
     <row r="113">
@@ -6145,16 +6145,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NOKIA</t>
+          <t>SIGMA MOBILE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>105 Dual Sim 2023 Red</t>
+          <t>X-Style 31 Power Type-C Purple</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
@@ -6162,14 +6162,14 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>21.34</v>
+        <v>22.43</v>
       </c>
       <c r="I113" t="n">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
@@ -6178,13 +6178,13 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M113" t="n">
-        <v>464897</v>
+        <v>448250</v>
       </c>
       <c r="N113" t="n">
-        <v>10295775</v>
+        <v>9532108</v>
       </c>
     </row>
     <row r="114">
@@ -6195,16 +6195,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>REALME</t>
+          <t>TECNO</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>9 Pro 6/128GB Midnight Black Global Version</t>
+          <t>POP 5 BD2d 2/32GB Ice Lake Green (4895180775109)</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>9649</v>
+        <v>2299</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
@@ -6212,14 +6212,14 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>-2.9%</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="I114" t="n">
-        <v>9245</v>
+        <v>2369</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
@@ -6228,15 +6228,13 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>7</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>STH0011440</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4895180775109</v>
       </c>
       <c r="N114" t="n">
-        <v>8751666</v>
+        <v>8729180</v>
       </c>
     </row>
     <row r="115">
@@ -6247,16 +6245,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>UMIDIGI</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G 6/128GB White (SM-A736BZWDSEK)</t>
+          <t>A11 3/64Gb Grey</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>14849</v>
+        <v>3099</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
@@ -6264,14 +6262,14 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>386.9</v>
+        <v>84</v>
       </c>
       <c r="I115" t="n">
-        <v>14780</v>
+        <v>3167</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
@@ -6280,13 +6278,13 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M115" t="n">
-        <v>79230</v>
+        <v>747654</v>
       </c>
       <c r="N115" t="n">
-        <v>8690907</v>
+        <v>7148373</v>
       </c>
     </row>
     <row r="116">
@@ -6297,16 +6295,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Note 9 N960U 8/512Gb Ocean Blue 1 SIM USA Open Box</t>
+          <t>Redmi 12C 3/64GB Graphite Gray</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>12999</v>
+        <v>4299</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
@@ -6314,14 +6312,14 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>322</v>
+        <v>116.07</v>
       </c>
       <c r="I116" t="n">
-        <v>12301</v>
+        <v>4400</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
@@ -6332,13 +6330,11 @@
       <c r="L116" t="n">
         <v>1</v>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>STH0010445</t>
-        </is>
+      <c r="M116" t="n">
+        <v>977262</v>
       </c>
       <c r="N116" t="n">
-        <v>8487029</v>
+        <v>9799415</v>
       </c>
     </row>
     <row r="117">
@@ -6349,16 +6345,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy S10 128GB Green 1 Sim (G973U) USA Open Box</t>
+          <t>Redmi Note 10 5G 4/64GB Nighttime Blue Global Version</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7749</v>
+        <v>4749</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
@@ -6366,31 +6362,29 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-35.9%</t>
+          <t>-9.6%</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="I117" t="n">
-        <v>12091</v>
+        <v>5254</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>106</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>STH0011954</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="M117" t="n">
+        <v>747544</v>
       </c>
       <c r="N117" t="n">
-        <v>-8771626</v>
+        <v>6889368</v>
       </c>
     </row>
     <row r="118">
@@ -6401,16 +6395,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy S20 5G SM-G9810 12/128Gb Cosmic Gray Asia Open Box</t>
+          <t>Redmi Note 11 Pro 5G 6/128GB Graphite Gray Global Version</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>17899</v>
+        <v>8499</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
@@ -6418,14 +6412,14 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>450</v>
+        <v>229</v>
       </c>
       <c r="I118" t="n">
-        <v>17190</v>
+        <v>8748</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
@@ -6438,467 +6432,11 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>STH0004390</t>
+          <t>STH0011131</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>8954638</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Galaxy S20 8/128GB Cloud Blue (SM-G980FLBDSEK) Global Open Box</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>16999</v>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="H119" t="n">
-        <v>430</v>
-      </c>
-      <c r="I119" t="n">
-        <v>16426</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>11</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>STH0004156</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
-        <v>8934916</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>SIGMA MOBILE</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>X-Style 31 Power Type-C Purple</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>849</v>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="I120" t="n">
-        <v>846</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>24</v>
-      </c>
-      <c r="M120" t="n">
-        <v>448250</v>
-      </c>
-      <c r="N120" t="n">
-        <v>9532108</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>SONY</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Xperia 5 IV 8/256GB Black</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>28899</v>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
-        <v>720</v>
-      </c>
-      <c r="I121" t="n">
-        <v>27505</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>3</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>STH0018824</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
-        <v>10762833</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>TECNO</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>POP 5 BD2d 2/32GB Ice Lake Green (4895180775109)</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>2349</v>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>62</v>
-      </c>
-      <c r="I122" t="n">
-        <v>2369</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>10</v>
-      </c>
-      <c r="M122" t="n">
-        <v>4895180775109</v>
-      </c>
-      <c r="N122" t="n">
-        <v>8729180</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>UMIDIGI</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>A11 3/64Gb Grey</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>3149</v>
-      </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>84</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3167</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>18</v>
-      </c>
-      <c r="M123" t="n">
-        <v>747654</v>
-      </c>
-      <c r="N123" t="n">
-        <v>7148373</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Redmi 12C 3/64GB Graphite Gray</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>4399</v>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H124" t="n">
-        <v>116.07</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4400</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="n">
-        <v>977262</v>
-      </c>
-      <c r="N124" t="n">
-        <v>9799415</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Redmi Note 10 5G 4/64GB Nighttime Blue Global Version</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4999</v>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>142</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5254</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>49</v>
-      </c>
-      <c r="M125" t="n">
-        <v>747544</v>
-      </c>
-      <c r="N125" t="n">
-        <v>6889368</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>XIAOMI</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Redmi Note 11 Pro 5G 6/128GB Graphite Gray Global Version</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>8749</v>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>229</v>
-      </c>
-      <c r="I126" t="n">
-        <v>8748</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>11</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>STH0011131</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
         <v>8673049</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Телефоны мобильные</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ZTE</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Blade V40 Vita 4/128GB Black</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>4799</v>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>12.8%</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>112</v>
-      </c>
-      <c r="I127" t="n">
-        <v>4256</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Фот</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>3</v>
-      </c>
-      <c r="M127" t="n">
-        <v>951876</v>
-      </c>
-      <c r="N127" t="n">
-        <v>9327982</v>
       </c>
     </row>
   </sheetData>
